--- a/medicine/Enfance/Douglas_Brosset/Douglas_Brosset.xlsx
+++ b/medicine/Enfance/Douglas_Brosset/Douglas_Brosset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Douglas Brosset, né le 14 décembre 1997, est un acteur et écrivain français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Douglas Brosset, né le 14 décembre 1997, est un acteur et écrivain français.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,15 +553,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-2006 : Les Aristos de Charlotte de Turckheim : Philippe Philippe de Montcougnier
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2006 : Les Aristos de Charlotte de Turckheim : Philippe Philippe de Montcougnier
 2006 : Enfance et Partage de Thibault Montbellet : le petit garçon
 2007 : Mimiques de Dominique Rocher : le petit garçon
-2010 : Gainsbourg, vie héroïque de Joann Sfar : le camarade de Lucien
-Télévision
-2005 : Partir en fumée de Talal Selhami : le petit garçon
-2009 : On achève bien les disc-jockeys d'Orso Miret : le garçon footballeur
-2012 : Je retourne chez ma mère de William Crépin : David jeune</t>
+2010 : Gainsbourg, vie héroïque de Joann Sfar : le camarade de Lucien</t>
         </is>
       </c>
     </row>
@@ -572,10 +587,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2005 : Partir en fumée de Talal Selhami : le petit garçon
+2009 : On achève bien les disc-jockeys d'Orso Miret : le garçon footballeur
+2012 : Je retourne chez ma mère de William Crépin : David jeune</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Douglas_Brosset</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Douglas_Brosset</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les Enfants d'Itteville (écrit à l'âge de 10 ans), éditions Elzévir  (ISBN 978-2-8114-0193-1).
 École, jeux vidéo et rock'n roll (écrit à l'âge de 12), éditions Deux Lunes à l'autre  (ISBN 978-2-9531644-4-2) (BNF 42527142).</t>
